--- a/api.xlsx
+++ b/api.xlsx
@@ -3,8 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27690" windowHeight="13305"/>
+    <workbookView windowWidth="27690" windowHeight="13290" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,41 +14,218 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>函数名</t>
+  </si>
+  <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>返回值</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>构造函数，创建空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>User,School,Project,Endorsor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>各一个</t>
+    </r>
+  </si>
+  <si>
+    <t>自动执行</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>createUser</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>User</t>
+    </r>
+  </si>
+  <si>
+    <t>bytes32 _userName, bytes32 _userPhone, bytes32 _userPassword</t>
+  </si>
+  <si>
+    <t>userCount</t>
+  </si>
+  <si>
+    <r>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数量</t>
+    </r>
+  </si>
+  <si>
+    <t>uint256</t>
+  </si>
+  <si>
+    <r>
+      <t>返回的数量比实际数量多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>因为有个空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>user</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="25">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -62,6 +240,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -70,9 +255,31 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -84,94 +291,63 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -189,13 +365,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,163 +521,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,6 +592,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -427,17 +612,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,9 +633,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,8 +645,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,154 +655,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -943,15 +1121,103 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H9" sqref="H7:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="7" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="8.78666666666667" style="1"/>
+    <col min="2" max="2" width="12.5666666666667" style="1"/>
+    <col min="3" max="3" width="46.7466666666667" style="1"/>
+    <col min="4" max="4" width="20.8" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.78666666666667" style="1"/>
+    <col min="6" max="6" width="20.4" style="1" customWidth="1"/>
+    <col min="7" max="1025" width="8.78666666666667" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:6">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="50" customHeight="1" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" ht="57" spans="2:6">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="3:3">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" ht="16.5" spans="3:3">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" ht="16.5" spans="3:3">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" ht="16.5" spans="3:3">
+      <c r="C8" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>